--- a/src/main/java/com/ghana/app/qa/testdata/GhanaVisaConsulateTestData.xlsx
+++ b/src/main/java/com/ghana/app/qa/testdata/GhanaVisaConsulateTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Title/Action</t>
   </si>
@@ -31,92 +31,27 @@
     <t>Description of Action/Title</t>
   </si>
   <si>
-    <t>Home</t>
+    <t>Welcome To Ghana Embassy</t>
+  </si>
+  <si>
+    <t>After putting the Url Verify the Title of Consulate login page.</t>
+  </si>
+  <si>
+    <t>Enter Consulate Id and Access Code</t>
+  </si>
+  <si>
+    <t>After entering valid Consulate id and Access code check Bucket page is displayed.</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Title of Home page after launching the browser</t>
-  </si>
-  <si>
-    <t>Click on Apply Visa from Home</t>
-  </si>
-  <si>
-    <t>Visa Types</t>
-  </si>
-  <si>
-    <t>Title of Visa Category page after click on Apply Visa</t>
-  </si>
-  <si>
-    <t>VISA CATEGORIES</t>
-  </si>
-  <si>
-    <t>Visa Categories text from Visa Type page</t>
-  </si>
-  <si>
-    <t>Sign Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Title of sign up page </t>
-  </si>
-  <si>
-    <t>Special</t>
-  </si>
-  <si>
-    <t>Select passport type</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Select Natinality  type</t>
-  </si>
-  <si>
-    <t>Kotoka Accra Airport</t>
-  </si>
-  <si>
-    <t>Select Port of Arrival</t>
-  </si>
-  <si>
-    <t>transit visa fees1 INR.2000.0</t>
-  </si>
-  <si>
-    <t>Select visa fee</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Select Visa Location</t>
-  </si>
-  <si>
-    <t>7507680723</t>
-  </si>
-  <si>
-    <t>Pass the phone number</t>
-  </si>
-  <si>
-    <t>sachin.patil.uk@gmail.com</t>
-  </si>
-  <si>
-    <t>Pass the email id</t>
-  </si>
-  <si>
-    <t>Pass the Re-email id</t>
-  </si>
-  <si>
-    <t>17/06/1993</t>
-  </si>
-  <si>
-    <t>Pass the Birth date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -486,7 +421,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -497,15 +432,15 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="77.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="9.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -524,169 +459,60 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
+      <c r="A9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
+      <c r="A10" s="5"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
+      <c r="A13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
+      <c r="A14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="8"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
-      <c r="B16" t="s">
-        <v>4</v>
-      </c>
       <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>4</v>
-      </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
       <c r="C18" s="9"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +522,6 @@
       <c r="A25" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A14" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
